--- a/excel/成分归一化处理.xlsx
+++ b/excel/成分归一化处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F4F075-CDF6-48F9-913C-58996CD899BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD78C5-9561-4F72-AD40-0148FECC69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5ADE8E0F-12D6-43D0-87D8-457E6F83B772}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382CB9B7-334C-4809-BE92-D9969C8936CC}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,51 +816,55 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>0.36152606125738851</v>
+        <v>0.70510478237506713</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
-        <v>4.1637751561415678E-2</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+        <v>0.6856349757113116</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.71967020023557138</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1769911504424779</v>
+      </c>
       <c r="J2" s="3">
-        <v>0.35997120230381568</v>
+        <v>0.2505399568034557</v>
       </c>
       <c r="K2" s="3">
-        <v>0.22827938671209541</v>
+        <v>0.26746166950596251</v>
       </c>
       <c r="L2" s="3">
-        <v>0.4464627151051625</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.13109843081312414</v>
-      </c>
+        <v>0.3594646271510516</v>
+      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3">
-        <v>0.6643159379407616</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>0.40398293029871973</v>
+        <v>7.8236130867709808E-2</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>1.9243104554201428E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -869,80 +873,84 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>0.15325094035464804</v>
+        <v>0.34991939817302531</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>6.5232477446217907E-2</v>
+      </c>
       <c r="H3" s="3">
-        <v>0.35100117785630158</v>
+        <v>0.25088339222614842</v>
       </c>
       <c r="I3" s="3">
+        <v>0.31415929203539822</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.38012958963282939</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2879045996592845</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.4340344168260039E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.67503566333808851</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.10223182145428367</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2.7257240204429302E-2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>9.7514340344168227E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.62610556348074187</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.40056417489421714</v>
-      </c>
       <c r="O3" s="3">
-        <v>0.44594594594594589</v>
+        <v>0.24893314366998576</v>
       </c>
       <c r="P3" s="3">
-        <v>0.57407407407407407</v>
+        <v>0.13888888888888887</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>0.27329392799570124</v>
+        <v>0.89554003224073075</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>0.35253296321998612</v>
+      </c>
       <c r="H4" s="3">
-        <v>0.11778563015312134</v>
+        <v>0.21201413427561838</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
-        <v>0.1007919366450684</v>
+        <v>0.25989920806335487</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>6.5009560229445512E-2</v>
+        <v>6.4053537284894838E-2</v>
       </c>
       <c r="M4" s="3">
-        <v>0.58687589158345221</v>
+        <v>1.9971469329529245E-3</v>
       </c>
       <c r="N4" s="3">
-        <v>0.4358251057827926</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0.17567567567567569</v>
+        <v>4.1963015647226175E-2</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -950,281 +958,295 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>0.23320795271359487</v>
+        <v>0.62321332616872649</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>0.85079805690492716</v>
+      </c>
       <c r="H5" s="3">
-        <v>0.12956419316843348</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.28318584070796471</v>
+      </c>
       <c r="J5" s="3">
-        <v>0.12455003599712024</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>0.36357091432685384</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.33901192504258948</v>
+      </c>
       <c r="L5" s="3">
-        <v>0.10038240917782024</v>
+        <v>0.4760994263862332</v>
       </c>
       <c r="M5" s="3">
-        <v>0.64179743223965768</v>
+        <v>1.8544935805991439E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>0.48801128349788431</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+        <v>8.0677009873060646E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.4807965860597432E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5.5555555555555559E-2</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>0.18946802794196671</v>
+        <v>0.66802794196668458</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>0.66342817487855654</v>
+      </c>
       <c r="H6" s="3">
-        <v>0.57950530035335701</v>
+        <v>0.81389870435806844</v>
       </c>
       <c r="I6" s="3">
-        <v>0.4336283185840708</v>
+        <v>0.4823008849557523</v>
       </c>
       <c r="J6" s="3">
-        <v>0.14830813534917203</v>
+        <v>0.43124550035997122</v>
       </c>
       <c r="K6" s="3">
-        <v>4.2589437819420775E-2</v>
+        <v>0.32197614991482115</v>
       </c>
       <c r="L6" s="3">
-        <v>6.1185468451242828E-2</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.7308131241084167</v>
-      </c>
+        <v>0.19789674952198855</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0.61735419630156463</v>
+        <v>5.1209103840682786E-2</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>0.23664696399785062</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.8988764044943812E-2</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>0.62181622783449764</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>0.75225537820957666</v>
+      </c>
       <c r="H7" s="3">
-        <v>0.24263839811542998</v>
+        <v>0.84098939929328631</v>
       </c>
       <c r="I7" s="3">
-        <v>3.5398230088495609E-2</v>
+        <v>0.57522123893805321</v>
       </c>
       <c r="J7" s="3">
-        <v>5.1115910727141826E-2</v>
+        <v>0.50755939524838012</v>
       </c>
       <c r="K7" s="3">
-        <v>1.0221465076660987E-2</v>
+        <v>0.41737649063032373</v>
       </c>
       <c r="L7" s="3">
-        <v>5.6405353728489475E-2</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.67489300998573476</v>
-      </c>
+        <v>0.30210325047801145</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3">
-        <v>0.24372355430183357</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0.40113798008534846</v>
+        <v>6.1877667140825023E-2</v>
       </c>
       <c r="P7" s="3">
-        <v>0.37037037037037035</v>
+        <v>1.8518518518518514E-2</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>7.0558050032071837E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0.66835034927458359</v>
+        <v>0.68704997313272442</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>2.0023557126030628E-2</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.66814159292035402</v>
+      </c>
       <c r="J8" s="3">
-        <v>7.1274298056155511E-2</v>
+        <v>0.7703383729301656</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>0.37819420783645658</v>
       </c>
       <c r="L8" s="3">
-        <v>4.7801147227533461E-3</v>
+        <v>0.22944550669216057</v>
       </c>
       <c r="M8" s="3">
-        <v>0.31298145506419406</v>
+        <v>1.2838801711840232E-3</v>
       </c>
       <c r="N8" s="3">
-        <v>0.16022566995768686</v>
+        <v>3.89280677009873E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>2.4893314366998574E-2</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>0.29231863442389755</v>
+      </c>
+      <c r="P8" s="3">
+        <v>6.4814814814814811E-2</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>0.48672756582482535</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.2682584269662921</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>0.6027941966684579</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>0.52532963219986117</v>
+      </c>
       <c r="H9" s="3">
-        <v>0.10836277974087162</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>0.61248527679623099</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5575221238938054</v>
+      </c>
       <c r="J9" s="3">
-        <v>7.1994240460763137E-2</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>0.6911447084233262</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
       <c r="L9" s="3">
-        <v>7.1701720841300179E-2</v>
+        <v>0.19789674952198855</v>
       </c>
       <c r="M9" s="3">
-        <v>0.46804564907275326</v>
+        <v>3.4236804564907277E-3</v>
       </c>
       <c r="N9" s="3">
-        <v>0.2242595204513399</v>
+        <v>2.7362482369534553E-2</v>
       </c>
       <c r="O9" s="3">
-        <v>1.9914651493598858E-2</v>
-      </c>
-      <c r="P9" s="3"/>
+        <v>0.31507823613086766</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7.4074074074074056E-2</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1584094572810317</v>
+        <v>0.95550779150994092</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>2.2900763358778626E-2</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <v>0.55948174322732636</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
+        <v>0.10129564193168436</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3">
-        <v>0.20734341252699781</v>
+        <v>0.1101511879049676</v>
       </c>
       <c r="K10" s="3">
-        <v>0.27597955706984667</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>7.6481835564053535E-3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.6278174037089872</v>
-      </c>
+        <v>0.29923518164435947</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3">
-        <v>0.27531734837799715</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0.52560455192034139</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.39814814814814814</v>
-      </c>
+        <v>3.8406827880512091E-2</v>
+      </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1233,44 +1255,44 @@
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3">
-        <v>9.3390650188070926E-2</v>
+        <v>0.17646426652337455</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <v>0.59246171967020034</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.18584070796460181</v>
-      </c>
+        <v>0.14958775029446411</v>
+      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3">
-        <v>0.12958963282937364</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.10051107325383304</v>
-      </c>
+        <v>6.4074874010079205E-2</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>0.50095602294455055</v>
+        <v>0.98470363288718932</v>
       </c>
       <c r="M11" s="3">
-        <v>0.85221112696148371</v>
+        <v>0.40756062767475038</v>
       </c>
       <c r="N11" s="3">
-        <v>0.20564174894217205</v>
-      </c>
-      <c r="O11" s="3"/>
+        <v>0.88095909732016919</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.2503556187766714</v>
+      </c>
       <c r="P11" s="3">
-        <v>0.55555555555555547</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="3">
+        <v>0.14239897370109045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -1279,144 +1301,130 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>0.32101020956475018</v>
+        <v>9.5647501343363792E-3</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>6.939625260235947E-3</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <v>0.3886925795053004</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.10619469026548674</v>
-      </c>
+        <v>0.35100117785630158</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3">
-        <v>0.16126709863210942</v>
+        <v>4.7516198704103681E-2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>0.46080305927342247</v>
+        <v>0.28967495219885275</v>
       </c>
       <c r="M12" s="3">
-        <v>0.36062767475035667</v>
+        <v>0.46134094151212562</v>
       </c>
       <c r="N12" s="3">
-        <v>0.41212976022566988</v>
+        <v>0.86375176304654444</v>
       </c>
       <c r="O12" s="3">
-        <v>0.66216216216216217</v>
+        <v>0.53271692745376953</v>
       </c>
       <c r="P12" s="3">
-        <v>0.30555555555555552</v>
+        <v>0.45370370370370372</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="R12" s="3">
+        <v>0.94098781270044896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>0.50392262224610429</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.21207865168539325</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>0.98119290703922624</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>3.3310201249132546E-2</v>
+      </c>
       <c r="H13" s="3">
-        <v>4.9469964664310966E-2</v>
+        <v>4.8292108362779751E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
-        <v>0.10439164866810655</v>
+        <v>6.2634989200863939E-2</v>
       </c>
       <c r="K13" s="3">
-        <v>0.23509369676320274</v>
+        <v>2.5553662691652469E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>9.655831739961758E-2</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.45349500713266766</v>
-      </c>
+        <v>0.13766730401529634</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="3">
-        <v>0.18758815232722142</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>8.5348506401137971E-3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.14814814814814814</v>
-      </c>
+        <v>1.9914651493598858E-2</v>
+      </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0.22450295540032242</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>5.6210964607911175E-2</v>
+      </c>
       <c r="H14" s="3">
-        <v>0.39693757361601895</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.31858407079646017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3">
-        <v>0.34557235421166305</v>
+        <v>2.5917926565874733E-2</v>
       </c>
       <c r="K14" s="3">
-        <v>0.17376490630323679</v>
+        <v>1.5332197614991482E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>0.12045889101338431</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.57246790299572048</v>
-      </c>
+        <v>6.9789674952198844E-2</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3">
-        <v>0.25218617771509166</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.57112375533428161</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0.32407407407407407</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.11267605633802816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1425,49 +1433,49 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
-        <v>0.34454594304137565</v>
+        <v>0.32101020956475018</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>9.7154753643303275E-3</v>
+        <v>6.939625260235947E-3</v>
       </c>
       <c r="H15" s="3">
-        <v>6.7137809187279171E-2</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>0.3886925795053004</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.10619469026548674</v>
+      </c>
       <c r="J15" s="3">
-        <v>8.4233261339092882E-2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5.1107325383304932E-2</v>
-      </c>
+        <v>0.16126709863210942</v>
+      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3">
-        <v>0.13384321223709367</v>
+        <v>0.46080305927342247</v>
       </c>
       <c r="M15" s="3">
-        <v>0.66248216833095575</v>
+        <v>0.36062767475035667</v>
       </c>
       <c r="N15" s="3">
-        <v>0.28208744710860362</v>
+        <v>0.41212976022566988</v>
       </c>
       <c r="O15" s="3">
-        <v>1.9203413940256046E-2</v>
+        <v>0.66216216216216217</v>
       </c>
       <c r="P15" s="3">
-        <v>0.16666666666666666</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1476,137 +1484,135 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>0.5380977968833961</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>0.97334766254701788</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>6.2456627342123525E-2</v>
+      </c>
       <c r="H16" s="3">
-        <v>3.4157832744405196E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.10619469026548674</v>
-      </c>
+        <v>6.0070671378091883E-2</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3">
-        <v>6.9834413246940244E-2</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>7.2714182865370763E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.0442930153321971E-2</v>
+      </c>
       <c r="L16" s="3">
-        <v>0.27533460803059273</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.24065620542082741</v>
-      </c>
+        <v>0.14722753346080303</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="3">
-        <v>0.33455571227080388</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3">
-        <v>0.26851851851851855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5.6899004267425305E-3</v>
+      </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>0.4438473938742612</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>0.59419666845781838</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.28932584269662914</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.86190145732130463</v>
+      </c>
       <c r="H17" s="3">
-        <v>0.34275618374558314</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3.0973451327433659E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3">
-        <v>0.26709863210943124</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>0.41108711303095752</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.46166950596252126</v>
+      </c>
       <c r="L17" s="3">
-        <v>5.6405353728489475E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.43509272467902999</v>
-      </c>
+        <v>0.44168260038240914</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="N17" s="3">
-        <v>0.17545839210155145</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0.44594594594594589</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0.17592592592592593</v>
-      </c>
+        <v>8.5348506401137975E-2</v>
+      </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="3">
-        <v>0.38527673293928</v>
+        <v>0.63138097796883397</v>
       </c>
       <c r="F18" s="3">
-        <v>0.19943820224719103</v>
+        <v>0.36235955056179775</v>
       </c>
       <c r="G18" s="3">
-        <v>2.081887578070785E-3</v>
+        <v>0.84455239417071482</v>
       </c>
       <c r="H18" s="3">
-        <v>1.8845700824499417E-2</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>0.94464075382803314</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8.4070796460177025E-2</v>
+      </c>
       <c r="J18" s="3">
-        <v>8.2793376529877616E-2</v>
+        <v>0.63210943124550045</v>
       </c>
       <c r="K18" s="3">
-        <v>2.5553662691652469E-2</v>
+        <v>5.621805792163543E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>5.4493307839388147E-2</v>
+        <v>3.4416826003824084E-2</v>
       </c>
       <c r="M18" s="3">
-        <v>0.59201141226818832</v>
+        <v>2.1540656205420828E-2</v>
       </c>
       <c r="N18" s="3">
-        <v>0.30550070521861777</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0.16666666666666666</v>
-      </c>
+        <v>6.4011379800853483E-3</v>
+      </c>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -1615,176 +1621,174 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3">
-        <v>0.66802794196668458</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>0.66050510478237512</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.18258426966292135</v>
+      </c>
       <c r="G19" s="3">
-        <v>0.66342817487855654</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0.81389870435806844</v>
+        <v>0.94935217903415781</v>
       </c>
       <c r="I19" s="3">
-        <v>0.4823008849557523</v>
+        <v>2.2123893805309755E-2</v>
       </c>
       <c r="J19" s="3">
-        <v>0.43124550035997122</v>
+        <v>0.41252699784017272</v>
       </c>
       <c r="K19" s="3">
-        <v>0.32197614991482115</v>
+        <v>4.2589437819420775E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>0.19789674952198855</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>9.1778202676864248E-2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
       <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19" s="3">
-        <v>5.1209103840682786E-2</v>
-      </c>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>0.26942504030091352</v>
+        <v>0.81397098334228901</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>0.51472320376914027</v>
-      </c>
+      <c r="G20" s="3">
+        <v>0.64607911172796673</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>0.44247787610619471</v>
+        <v>0.46902654867256643</v>
       </c>
       <c r="J20" s="3">
-        <v>0.35493160547156222</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.43781942078364572</v>
-      </c>
-      <c r="L20" s="3">
-        <v>5.6405353728489475E-2</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.48601997146932957</v>
-      </c>
+        <v>0.18718502519798413</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3">
-        <v>0.17207334273624822</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0.78449502133712656</v>
+        <v>9.1749644381223322E-2</v>
       </c>
       <c r="P20" s="3">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="Q20" s="3"/>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <v>0.70918860827512087</v>
+        <v>0.27855991402471791</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>6.939625260235947E-3</v>
-      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>2.9446407538280334E-2</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>0.32037691401649004</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5.3097345132743369E-2</v>
+      </c>
       <c r="J21" s="3">
-        <v>0.13750899928005758</v>
+        <v>0.22462203023758096</v>
       </c>
       <c r="K21" s="3">
-        <v>0.141396933560477</v>
+        <v>0.19761499148211245</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>0.32504780114722748</v>
       </c>
       <c r="M21" s="3">
-        <v>0.28031383737517834</v>
+        <v>0.60927246790299583</v>
       </c>
       <c r="N21" s="3">
-        <v>0.13765867418899858</v>
+        <v>0.15091678420310295</v>
       </c>
       <c r="O21" s="3">
-        <v>7.1123755334281651E-3</v>
-      </c>
-      <c r="P21" s="3"/>
+        <v>0.62304409672830718</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.13888888888888887</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3">
-        <v>0.95647501343363783</v>
+        <v>0.36152606125738851</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>8.5983510011778577E-2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3.0973451327433659E-2</v>
-      </c>
+      <c r="G22" s="3">
+        <v>4.1637751561415678E-2</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <v>0.14830813534917203</v>
+        <v>0.35997120230381568</v>
       </c>
       <c r="K22" s="3">
-        <v>5.1107325383304937E-3</v>
+        <v>0.22827938671209541</v>
       </c>
       <c r="L22" s="3">
-        <v>0.13671128107074568</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>0.4464627151051625</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.13109843081312414</v>
+      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>0.6643159379407616</v>
       </c>
       <c r="O22" s="3">
-        <v>2.0625889046941678E-2</v>
+        <v>0.40398293029871973</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1792,104 +1796,102 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>0.51391724879097267</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.5421348314606742</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.2491325468424705E-2</v>
-      </c>
+        <v>0.78409457281031714</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>7.7738515901060082E-2</v>
+        <v>0.53003533568904604</v>
       </c>
       <c r="I23" s="3">
-        <v>6.194690265486727E-2</v>
+        <v>0.33185840707964603</v>
       </c>
       <c r="J23" s="3">
-        <v>0.18790496760259179</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>0.41324694024478043</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.37478705281090291</v>
+      </c>
       <c r="L23" s="3">
-        <v>5.1625239005736137E-2</v>
+        <v>0.30305927342256211</v>
       </c>
       <c r="M23" s="3">
-        <v>0.36077032810271042</v>
+        <v>1.2696148359486448E-2</v>
       </c>
       <c r="N23" s="3">
-        <v>0.2603667136812412</v>
+        <v>5.5571227080394914E-2</v>
       </c>
       <c r="O23" s="3">
-        <v>2.1337126600284493E-3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0.74999999999999989</v>
-      </c>
+        <v>7.3257467994310099E-2</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>0.81397098334228901</v>
+        <v>0.95249865663621702</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
-        <v>0.64607911172796673</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>4.3719639139486469E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.17078916372202593</v>
+      </c>
       <c r="I24" s="3">
-        <v>0.46902654867256643</v>
+        <v>7.5221238938053117E-2</v>
       </c>
       <c r="J24" s="3">
-        <v>0.18718502519798413</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+        <v>0.21958243340532754</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3.0664395229982957E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4.2065009560229447E-2</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>9.1749644381223322E-2</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2.777777777777778E-2</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
+        <v>9.9573257467994291E-3</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -1898,132 +1900,136 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>0.97334766254701788</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>6.2456627342123525E-2</v>
-      </c>
+        <v>0.5380977968833961</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>6.0070671378091883E-2</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>3.4157832744405196E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.10619469026548674</v>
+      </c>
       <c r="J25" s="3">
-        <v>7.2714182865370763E-2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>2.0442930153321971E-2</v>
-      </c>
+        <v>6.9834413246940244E-2</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <v>0.14722753346080303</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>0.27533460803059273</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.24065620542082741</v>
+      </c>
       <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>5.6899004267425305E-3</v>
-      </c>
-      <c r="P25" s="3"/>
+        <v>0.33455571227080388</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3">
+        <v>0.26851851851851855</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0.30327780763030632</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>5.6210964607911175E-2</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>3.0624263839811549E-2</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <v>2.5917926565874733E-2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.5332197614991482E-2</v>
-      </c>
+        <v>8.2073434125269989E-2</v>
+      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="3">
-        <v>6.9789674952198844E-2</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>0.79827915869980881</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.41412268188302431</v>
+      </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+        <v>0.73991537376586736</v>
+      </c>
+      <c r="O26" s="3">
+        <v>4.9786628733997154E-3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3">
-        <v>0.61859215475550788</v>
+        <v>0.50392262224610429</v>
       </c>
       <c r="F27" s="3">
-        <v>0.2612359550561798</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
+        <v>0.21207865168539325</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>7.4204946996466445E-2</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.11946902654867259</v>
-      </c>
+        <v>4.9469964664310966E-2</v>
+      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="3">
-        <v>0.32757379409647225</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>0.10439164866810655</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.23509369676320274</v>
+      </c>
       <c r="L27" s="3">
-        <v>4.0152963671128104E-2</v>
+        <v>9.655831739961758E-2</v>
       </c>
       <c r="M27" s="3">
-        <v>0.22653352353780318</v>
+        <v>0.45349500713266766</v>
       </c>
       <c r="N27" s="3">
-        <v>0.30916784203102959</v>
-      </c>
-      <c r="O27" s="3"/>
+        <v>0.18758815232722142</v>
+      </c>
+      <c r="O27" s="3">
+        <v>8.5348506401137971E-3</v>
+      </c>
       <c r="P27" s="3">
-        <v>0.17592592592592593</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -2032,39 +2038,41 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>0.98119290703922624</v>
+        <v>0.17270284793121979</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3">
-        <v>3.3310201249132546E-2</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>4.8292108362779751E-2</v>
+        <v>0.14487632508833925</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <v>6.2634989200863939E-2</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2.5553662691652469E-2</v>
-      </c>
+        <v>1.7998560115190781E-2</v>
+      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="3">
-        <v>0.13766730401529634</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.41968616262482172</v>
+      </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <v>0.90973201692524674</v>
       </c>
       <c r="O28" s="3">
-        <v>1.9914651493598858E-2</v>
-      </c>
-      <c r="P28" s="3"/>
+        <v>0.21763869132290184</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.37962962962962965</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>0.10262989095574086</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -2073,46 +2081,46 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
-        <v>0.64416980118216016</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.31460674157303375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>2.0124913254684251E-2</v>
       </c>
       <c r="H29" s="3">
-        <v>6.7137809187279171E-2</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.29646017699115046</v>
-      </c>
+        <v>0.32979976442873976</v>
+      </c>
+      <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <v>0.40388768898488114</v>
+        <v>5.2555795536357086E-2</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3">
-        <v>4.1108986615678779E-2</v>
+        <v>0.33365200764818354</v>
       </c>
       <c r="M29" s="3">
-        <v>0.19329529243937235</v>
+        <v>0.42524964336661919</v>
       </c>
       <c r="N29" s="3">
-        <v>0.25359661495063468</v>
-      </c>
-      <c r="O29" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.42460881934566141</v>
+      </c>
       <c r="P29" s="3">
-        <v>0.21296296296296297</v>
+        <v>0.53703703703703698</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
@@ -2124,371 +2132,379 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>0.95550779150994092</v>
+        <v>0.95647501343363783</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>0.10129564193168436</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>8.5983510011778577E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3.0973451327433659E-2</v>
+      </c>
       <c r="J30" s="3">
-        <v>0.1101511879049676</v>
+        <v>0.14830813534917203</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>5.1107325383304937E-3</v>
       </c>
       <c r="L30" s="3">
-        <v>0.29923518164435947</v>
+        <v>0.13671128107074568</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3">
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>3.8406827880512091E-2</v>
+        <v>2.0625889046941678E-2</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>0.62181622783449764</v>
+        <v>0.69167114454594303</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
-        <v>0.75225537820957666</v>
+        <v>1.0409437890353923E-2</v>
       </c>
       <c r="H31" s="3">
-        <v>0.84098939929328631</v>
+        <v>0.13309776207302712</v>
       </c>
       <c r="I31" s="3">
-        <v>0.57522123893805321</v>
+        <v>0.23451327433628322</v>
       </c>
       <c r="J31" s="3">
-        <v>0.50755939524838012</v>
+        <v>0.30597552195824335</v>
       </c>
       <c r="K31" s="3">
-        <v>0.41737649063032373</v>
+        <v>4.0885860306643942E-2</v>
       </c>
       <c r="L31" s="3">
-        <v>0.30210325047801145</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>2.1032504780114723E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.24293865905848791</v>
+      </c>
       <c r="N31" s="3">
+        <v>0.11396332863187587</v>
+      </c>
+      <c r="O31" s="3">
+        <v>6.8990042674253196E-2</v>
+      </c>
+      <c r="P31" s="3">
+        <v>7.4074074074074056E-2</v>
+      </c>
+      <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3">
-        <v>6.1877667140825023E-2</v>
-      </c>
-      <c r="P31" s="3">
-        <v>1.8518518518518514E-2</v>
-      </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3">
-        <v>7.0558050032071837E-3</v>
-      </c>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="3">
-        <v>0.51166039763567972</v>
+        <v>0.64030091348737239</v>
       </c>
       <c r="F32" s="3">
-        <v>0.6853932584269663</v>
+        <v>1.6853932584269662E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>1.6655100624566273E-2</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>1.31852879944483E-2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.3262661955241461</v>
+      </c>
       <c r="I32" s="3">
-        <v>0.30530973451327437</v>
+        <v>0.45132743362831862</v>
       </c>
       <c r="J32" s="3">
-        <v>0.37508999280057592</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.10902896081771721</v>
+      </c>
       <c r="L32" s="3">
-        <v>0.24952198852772467</v>
+        <v>6.0229445506692153E-2</v>
       </c>
       <c r="M32" s="3">
-        <v>0.28544935805991445</v>
+        <v>0.17403708987161201</v>
       </c>
       <c r="N32" s="3">
-        <v>0.30691114245416079</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+        <v>5.7263751763046537E-2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2.4182076813655758E-2</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.19444444444444442</v>
+      </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E33" s="3">
-        <v>0.69167114454594303</v>
+        <v>0.32907039226222468</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
-        <v>1.0409437890353923E-2</v>
+        <v>9.0215128383067306E-2</v>
       </c>
       <c r="H33" s="3">
-        <v>0.13309776207302712</v>
+        <v>0.50412249705535939</v>
       </c>
       <c r="I33" s="3">
-        <v>0.23451327433628322</v>
+        <v>0.22566371681415931</v>
       </c>
       <c r="J33" s="3">
-        <v>0.30597552195824335</v>
+        <v>0.28077753779697617</v>
       </c>
       <c r="K33" s="3">
-        <v>4.0885860306643942E-2</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2.1032504780114723E-2</v>
-      </c>
+        <v>0.33219761499148215</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="3">
-        <v>0.24293865905848791</v>
+        <v>0.55791726105563488</v>
       </c>
       <c r="N33" s="3">
-        <v>0.11396332863187587</v>
-      </c>
-      <c r="O33" s="3">
-        <v>6.8990042674253196E-2</v>
-      </c>
+        <v>0.2902679830747531</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3">
-        <v>7.4074074074074056E-2</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>7.9812206572769967E-2</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3">
-        <v>0.3139172487909726</v>
-      </c>
-      <c r="F34" s="3">
-        <v>8.1460674157303348E-2</v>
-      </c>
+        <v>0.35690488984416985</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>5.5359246171967039E-2</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>0.47467608951707901</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.7699115044247805E-2</v>
+      </c>
       <c r="J34" s="3">
-        <v>0.15262778977681782</v>
+        <v>0.24550035997120226</v>
       </c>
       <c r="K34" s="3">
-        <v>2.0442930153321971E-2</v>
-      </c>
-      <c r="L34" s="3">
-        <v>5.9273422562141485E-2</v>
-      </c>
+        <v>0.43781942078364572</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="M34" s="3">
-        <v>0.70185449358059926</v>
+        <v>0.53680456490727535</v>
       </c>
       <c r="N34" s="3">
-        <v>0.27616361071932294</v>
+        <v>0.29196050775740479</v>
       </c>
       <c r="O34" s="3">
-        <v>2.9160739687055473E-2</v>
+        <v>9.5305832147937392E-2</v>
       </c>
       <c r="P34" s="3">
-        <v>0.34259259259259256</v>
-      </c>
-      <c r="Q34" s="3"/>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>9.8591549295774655E-2</v>
+      </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E35" s="3">
-        <v>0.70510478237506713</v>
+        <v>0.66835034927458359</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <v>0.6856349757113116</v>
-      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <v>0.71967020023557138</v>
+        <v>0.16372202591283869</v>
       </c>
       <c r="I35" s="3">
-        <v>0.1769911504424779</v>
+        <v>0.18584070796460181</v>
       </c>
       <c r="J35" s="3">
-        <v>0.2505399568034557</v>
+        <v>0.19150467962562992</v>
       </c>
       <c r="K35" s="3">
-        <v>0.26746166950596251</v>
+        <v>0.75298126064735937</v>
       </c>
       <c r="L35" s="3">
-        <v>0.3594646271510516</v>
-      </c>
-      <c r="M35" s="3"/>
+        <v>3.1548757170172081E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.23452211126961486</v>
+      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>9.6473906911142451E-2</v>
       </c>
       <c r="O35" s="3">
-        <v>7.8236130867709808E-2</v>
-      </c>
-      <c r="P35" s="3"/>
+        <v>0.11024182076813656</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.24074074074074073</v>
+      </c>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3">
-        <v>1.9243104554201428E-3</v>
-      </c>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E36" s="3">
-        <v>0.19322944653412144</v>
+        <v>0.70918860827512087</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>6.939625260235947E-3</v>
+      </c>
       <c r="H36" s="3">
-        <v>0.72909305064782115</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.21238938053097348</v>
-      </c>
+        <v>2.9446407538280334E-2</v>
+      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3">
-        <v>0.21310295176385888</v>
+        <v>0.13750899928005758</v>
       </c>
       <c r="K36" s="3">
-        <v>0.20783645655877342</v>
+        <v>0.141396933560477</v>
       </c>
       <c r="L36" s="3">
-        <v>0.13384321223709367</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>0.63680456490727533</v>
+        <v>0.28031383737517834</v>
       </c>
       <c r="N36" s="3">
-        <v>9.1960507757404789E-2</v>
+        <v>0.13765867418899858</v>
       </c>
       <c r="O36" s="3">
-        <v>0.90753911806543386</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0.39814814814814814</v>
-      </c>
+        <v>7.1123755334281651E-3</v>
+      </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E37" s="3">
-        <v>0.14390112842557765</v>
+        <v>0.77152068780225691</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="3">
+        <v>2.7758501040943784E-3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5.064782096584218E-2</v>
+      </c>
       <c r="I37" s="3">
-        <v>0.28318584070796471</v>
+        <v>0.23451327433628322</v>
       </c>
       <c r="J37" s="3">
-        <v>0.23038156947444202</v>
+        <v>0.13678905687544995</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3">
-        <v>0.1175908221797323</v>
+        <v>3.4416826003824084E-2</v>
       </c>
       <c r="M37" s="3">
-        <v>0.83238231098430826</v>
+        <v>0.22895863052781742</v>
       </c>
       <c r="N37" s="3">
-        <v>0</v>
+        <v>0.10014104372355428</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
-      </c>
-      <c r="P37" s="3">
-        <v>1</v>
-      </c>
+        <v>4.2674253200568986E-3</v>
+      </c>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -2497,190 +2513,188 @@
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3">
-        <v>0.51090811391724877</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.69382022471910121</v>
-      </c>
+        <v>0.34454594304137565</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3">
-        <v>2.7758501040943784E-3</v>
+        <v>9.7154753643303275E-3</v>
       </c>
       <c r="H38" s="3">
-        <v>6.8315665488810393E-2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.2743362831858408</v>
-      </c>
+        <v>6.7137809187279171E-2</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <v>0.22174226061915042</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>8.4233261339092882E-2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5.1107325383304932E-2</v>
+      </c>
       <c r="L38" s="3">
-        <v>0.24474187380497131</v>
+        <v>0.13384321223709367</v>
       </c>
       <c r="M38" s="3">
-        <v>0.31055634807417976</v>
+        <v>0.66248216833095575</v>
       </c>
       <c r="N38" s="3">
-        <v>0.29534555712270805</v>
+        <v>0.28208744710860362</v>
       </c>
       <c r="O38" s="3">
-        <v>7.112375533428161E-4</v>
+        <v>1.9203413940256046E-2</v>
       </c>
       <c r="P38" s="3">
-        <v>0.28703703703703703</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3">
-        <v>0.24212788823213327</v>
+        <v>0.66835034927458359</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>0.10600706713780922</v>
+        <v>2.0023557126030628E-2</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>3.5997120230381562E-3</v>
-      </c>
-      <c r="K39" s="3"/>
+        <v>7.1274298056155511E-2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
       <c r="L39" s="3">
-        <v>7.3613766730401528E-2</v>
+        <v>4.7801147227533461E-3</v>
       </c>
       <c r="M39" s="3">
-        <v>0.86904422253922975</v>
+        <v>0.31298145506419406</v>
       </c>
       <c r="N39" s="3">
-        <v>0.20366713681241183</v>
+        <v>0.16022566995768686</v>
       </c>
       <c r="O39" s="3">
-        <v>7.7524893314366988E-2</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0.52777777777777768</v>
-      </c>
+        <v>2.4893314366998574E-2</v>
+      </c>
+      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E40" s="3">
-        <v>0.66835034927458359</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+        <v>0.38527673293928</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.19943820224719103</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.081887578070785E-3</v>
+      </c>
       <c r="H40" s="3">
-        <v>0.16372202591283869</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.18584070796460181</v>
-      </c>
+        <v>1.8845700824499417E-2</v>
+      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>0.19150467962562992</v>
+        <v>8.2793376529877616E-2</v>
       </c>
       <c r="K40" s="3">
-        <v>0.75298126064735937</v>
+        <v>2.5553662691652469E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.1548757170172081E-2</v>
+        <v>5.4493307839388147E-2</v>
       </c>
       <c r="M40" s="3">
-        <v>0.23452211126961486</v>
+        <v>0.59201141226818832</v>
       </c>
       <c r="N40" s="3">
-        <v>9.6473906911142451E-2</v>
+        <v>0.30550070521861777</v>
       </c>
       <c r="O40" s="3">
-        <v>0.11024182076813656</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>0.24074074074074073</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E41" s="3">
-        <v>0.54691026329930148</v>
+        <v>0.60612573885008059</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
-        <v>1.31852879944483E-2</v>
+        <v>8.3275503122831381E-3</v>
       </c>
       <c r="H41" s="3">
-        <v>0.22025912838633693</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.32300884955752213</v>
-      </c>
+        <v>8.0094228504122511E-2</v>
+      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>0.43556515478761698</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0.18739352640545145</v>
-      </c>
+        <v>0.16342692584593232</v>
+      </c>
+      <c r="K41" s="3"/>
       <c r="L41" s="3">
-        <v>3.2504780114722756E-2</v>
+        <v>0.27724665391969405</v>
       </c>
       <c r="M41" s="3">
-        <v>0.32681883024251074</v>
+        <v>0.24436519258202569</v>
       </c>
       <c r="N41" s="3">
-        <v>0.11819464033850494</v>
+        <v>0.29167842031029617</v>
       </c>
       <c r="O41" s="3">
-        <v>0.30227596017069702</v>
+        <v>9.8862019914651489E-2</v>
       </c>
       <c r="P41" s="3">
-        <v>0.24074074074074073</v>
+        <v>0.25</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="R41" s="3">
+        <v>0.21167415009621554</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -2688,317 +2702,323 @@
       <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E42" s="3">
-        <v>0.13960236432025794</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>0.3139172487909726</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.1460674157303348E-2</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <v>0.19552414605418145</v>
+        <v>5.5359246171967039E-2</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>0.15262778977681782</v>
       </c>
       <c r="K42" s="3">
-        <v>3.407155025553661E-3</v>
-      </c>
-      <c r="L42" s="3"/>
+        <v>2.0442930153321971E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>5.9273422562141485E-2</v>
+      </c>
       <c r="M42" s="3">
-        <v>1</v>
+        <v>0.70185449358059926</v>
       </c>
       <c r="N42" s="3">
-        <v>0.18871650211565585</v>
+        <v>0.27616361071932294</v>
       </c>
       <c r="O42" s="3">
-        <v>0.1209103840682788</v>
+        <v>2.9160739687055473E-2</v>
       </c>
       <c r="P42" s="3">
-        <v>0.59259259259259256</v>
+        <v>0.34259259259259256</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E43" s="3">
-        <v>0.5533584094572811</v>
+        <v>0.24212788823213327</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3">
-        <v>9.7154753643303275E-3</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3">
-        <v>0.53097345132743368</v>
-      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>0.10600706713780922</v>
+      </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <v>0.31245500359971201</v>
+        <v>3.5997120230381562E-3</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3">
-        <v>6.3097514340344163E-2</v>
+        <v>7.3613766730401528E-2</v>
       </c>
       <c r="M43" s="3">
-        <v>0.35863052781740373</v>
+        <v>0.86904422253922975</v>
       </c>
       <c r="N43" s="3">
-        <v>0.2837799717912553</v>
+        <v>0.20366713681241183</v>
       </c>
       <c r="O43" s="3">
-        <v>9.2460881934566148E-3</v>
+        <v>7.7524893314366988E-2</v>
       </c>
       <c r="P43" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.52777777777777768</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>0.13960236432025794</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>0.19552414605418145</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3.407155025553661E-3</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.95249865663621702</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
-        <v>4.3719639139486469E-2</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.17078916372202593</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7.5221238938053117E-2</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0.21958243340532754</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3.0664395229982957E-2</v>
-      </c>
-      <c r="L44" s="3">
-        <v>4.2065009560229447E-2</v>
-      </c>
-      <c r="M44" s="3"/>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>0.18871650211565585</v>
       </c>
       <c r="O44" s="3">
-        <v>9.9573257467994291E-3</v>
-      </c>
-      <c r="P44" s="3"/>
+        <v>0.1209103840682788</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0.59259259259259256</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.1584094572810317</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>2.2900763358778626E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.55948174322732636</v>
+      </c>
+      <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.78409457281031714</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>0.53003533568904604</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.33185840707964603</v>
-      </c>
       <c r="J45" s="3">
-        <v>0.41324694024478043</v>
+        <v>0.20734341252699781</v>
       </c>
       <c r="K45" s="3">
-        <v>0.37478705281090291</v>
+        <v>0.27597955706984667</v>
       </c>
       <c r="L45" s="3">
-        <v>0.30305927342256211</v>
+        <v>7.6481835564053535E-3</v>
       </c>
       <c r="M45" s="3">
-        <v>1.2696148359486448E-2</v>
+        <v>0.6278174037089872</v>
       </c>
       <c r="N45" s="3">
-        <v>5.5571227080394914E-2</v>
+        <v>0.27531734837799715</v>
       </c>
       <c r="O45" s="3">
-        <v>7.3257467994310099E-2</v>
-      </c>
-      <c r="P45" s="3"/>
+        <v>0.52560455192034139</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.39814814814814814</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3">
-        <v>0.89554003224073075</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>0.51090811391724877</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.69382022471910121</v>
+      </c>
       <c r="G46" s="3">
-        <v>0.35253296321998612</v>
+        <v>2.7758501040943784E-3</v>
       </c>
       <c r="H46" s="3">
-        <v>0.21201413427561838</v>
-      </c>
-      <c r="I46" s="3"/>
+        <v>6.8315665488810393E-2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.2743362831858408</v>
+      </c>
       <c r="J46" s="3">
-        <v>0.25989920806335487</v>
+        <v>0.22174226061915042</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3">
-        <v>6.4053537284894838E-2</v>
+        <v>0.24474187380497131</v>
       </c>
       <c r="M46" s="3">
-        <v>1.9971469329529245E-3</v>
+        <v>0.31055634807417976</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>0.29534555712270805</v>
       </c>
       <c r="O46" s="3">
-        <v>4.1963015647226175E-2</v>
-      </c>
-      <c r="P46" s="3"/>
+        <v>7.112375533428161E-4</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.28703703703703703</v>
+      </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E47" s="3">
-        <v>0.32907039226222468</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>0.51166039763567972</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.6853932584269663</v>
+      </c>
       <c r="G47" s="3">
-        <v>9.0215128383067306E-2</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.50412249705535939</v>
-      </c>
+        <v>1.6655100624566273E-2</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>0.22566371681415931</v>
+        <v>0.30530973451327437</v>
       </c>
       <c r="J47" s="3">
-        <v>0.28077753779697617</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.33219761499148215</v>
-      </c>
-      <c r="L47" s="3"/>
+        <v>0.37508999280057592</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
+        <v>0.24952198852772467</v>
+      </c>
       <c r="M47" s="3">
-        <v>0.55791726105563488</v>
+        <v>0.28544935805991445</v>
       </c>
       <c r="N47" s="3">
-        <v>0.2902679830747531</v>
+        <v>0.30691114245416079</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="3">
-        <v>0.28703703703703703</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7.9812206572769967E-2</v>
-      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E48" s="3">
-        <v>0.77152068780225691</v>
+        <v>9.3390650188070926E-2</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3">
-        <v>2.7758501040943784E-3</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <v>5.064782096584218E-2</v>
+        <v>0.59246171967020034</v>
       </c>
       <c r="I48" s="3">
-        <v>0.23451327433628322</v>
+        <v>0.18584070796460181</v>
       </c>
       <c r="J48" s="3">
-        <v>0.13678905687544995</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>0.12958963282937364</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.10051107325383304</v>
+      </c>
       <c r="L48" s="3">
-        <v>3.4416826003824084E-2</v>
+        <v>0.50095602294455055</v>
       </c>
       <c r="M48" s="3">
-        <v>0.22895863052781742</v>
+        <v>0.85221112696148371</v>
       </c>
       <c r="N48" s="3">
-        <v>0.10014104372355428</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4.2674253200568986E-3</v>
-      </c>
-      <c r="P48" s="3"/>
+        <v>0.20564174894217205</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3">
+        <v>0.55555555555555547</v>
+      </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>5</v>
@@ -3010,93 +3030,91 @@
         <v>7</v>
       </c>
       <c r="E49" s="3">
-        <v>0.61278882321332617</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.31741573033707859</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6.2456627342123532E-3</v>
-      </c>
+        <v>0.19322944653412144</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <v>0.22732626619552421</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>0.72909305064782115</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.21238938053097348</v>
+      </c>
       <c r="J49" s="3">
-        <v>0.88120950323974079</v>
+        <v>0.21310295176385888</v>
       </c>
       <c r="K49" s="3">
-        <v>0.10221465076660988</v>
+        <v>0.20783645655877342</v>
       </c>
       <c r="L49" s="3">
-        <v>3.0592734225621414E-2</v>
+        <v>0.13384321223709367</v>
       </c>
       <c r="M49" s="3">
-        <v>0.19258202567760344</v>
+        <v>0.63680456490727533</v>
       </c>
       <c r="N49" s="3">
-        <v>0.1472496473906911</v>
-      </c>
-      <c r="O49" s="3"/>
+        <v>9.1960507757404789E-2</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.90753911806543386</v>
+      </c>
       <c r="P49" s="3">
-        <v>0.20370370370370369</v>
+        <v>0.39814814814814814</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="3">
-        <v>0.66050510478237512</v>
+        <v>0.61278882321332617</v>
       </c>
       <c r="F50" s="3">
-        <v>0.18258426966292135</v>
+        <v>0.31741573033707859</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>6.2456627342123532E-3</v>
       </c>
       <c r="H50" s="3">
-        <v>0.94935217903415781</v>
-      </c>
-      <c r="I50" s="3">
-        <v>2.2123893805309755E-2</v>
-      </c>
+        <v>0.22732626619552421</v>
+      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <v>0.41252699784017272</v>
+        <v>0.88120950323974079</v>
       </c>
       <c r="K50" s="3">
-        <v>4.2589437819420775E-2</v>
+        <v>0.10221465076660988</v>
       </c>
       <c r="L50" s="3">
-        <v>9.1778202676864248E-2</v>
+        <v>3.0592734225621414E-2</v>
       </c>
       <c r="M50" s="3">
-        <v>0</v>
+        <v>0.19258202567760344</v>
       </c>
       <c r="N50" s="3">
-        <v>0</v>
+        <v>0.1472496473906911</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3">
-        <v>0</v>
+        <v>0.20370370370370369</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>5</v>
@@ -3105,46 +3123,46 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E51" s="3">
-        <v>0.35690488984416985</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+        <v>0.61859215475550788</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.2612359550561798</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
       <c r="H51" s="3">
-        <v>0.47467608951707901</v>
+        <v>7.4204946996466445E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>1.7699115044247805E-2</v>
+        <v>0.11946902654867259</v>
       </c>
       <c r="J51" s="3">
-        <v>0.24550035997120226</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0.43781942078364572</v>
-      </c>
-      <c r="L51" s="3"/>
+        <v>0.32757379409647225</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>4.0152963671128104E-2</v>
+      </c>
       <c r="M51" s="3">
-        <v>0.53680456490727535</v>
+        <v>0.22653352353780318</v>
       </c>
       <c r="N51" s="3">
-        <v>0.29196050775740479</v>
-      </c>
-      <c r="O51" s="3">
-        <v>9.5305832147937392E-2</v>
-      </c>
+        <v>0.30916784203102959</v>
+      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="3">
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>9.8591549295774655E-2</v>
-      </c>
+        <v>0.17592592592592593</v>
+      </c>
+      <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
@@ -3153,182 +3171,192 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
-        <v>0.60612573885008059</v>
+        <v>0.5533584094572811</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
-        <v>8.3275503122831381E-3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8.0094228504122511E-2</v>
-      </c>
-      <c r="I52" s="3"/>
+        <v>9.7154753643303275E-3</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>0.53097345132743368</v>
+      </c>
       <c r="J52" s="3">
-        <v>0.16342692584593232</v>
+        <v>0.31245500359971201</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3">
-        <v>0.27724665391969405</v>
+        <v>6.3097514340344163E-2</v>
       </c>
       <c r="M52" s="3">
-        <v>0.24436519258202569</v>
+        <v>0.35863052781740373</v>
       </c>
       <c r="N52" s="3">
-        <v>0.29167842031029617</v>
+        <v>0.2837799717912553</v>
       </c>
       <c r="O52" s="3">
-        <v>9.8862019914651489E-2</v>
+        <v>9.2460881934566148E-3</v>
       </c>
       <c r="P52" s="3">
-        <v>0.25</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3">
-        <v>0.21167415009621554</v>
-      </c>
+      <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="3">
-        <v>0.27855991402471791</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+        <v>0.51391724879097267</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.5421348314606742</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.2491325468424705E-2</v>
+      </c>
       <c r="H53" s="3">
-        <v>0.32037691401649004</v>
+        <v>7.7738515901060082E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>5.3097345132743369E-2</v>
+        <v>6.194690265486727E-2</v>
       </c>
       <c r="J53" s="3">
-        <v>0.22462203023758096</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0.19761499148211245</v>
-      </c>
+        <v>0.18790496760259179</v>
+      </c>
+      <c r="K53" s="3"/>
       <c r="L53" s="3">
-        <v>0.32504780114722748</v>
+        <v>5.1625239005736137E-2</v>
       </c>
       <c r="M53" s="3">
-        <v>0.60927246790299583</v>
+        <v>0.36077032810271042</v>
       </c>
       <c r="N53" s="3">
-        <v>0.15091678420310295</v>
+        <v>0.2603667136812412</v>
       </c>
       <c r="O53" s="3">
-        <v>0.62304409672830718</v>
+        <v>2.1337126600284493E-3</v>
       </c>
       <c r="P53" s="3">
-        <v>0.13888888888888887</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3">
-        <v>0.59419666845781838</v>
+        <v>0.53315421816227837</v>
       </c>
       <c r="F54" s="3">
-        <v>0.28932584269662914</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.86190145732130463</v>
+        <v>1.4573213046495491E-2</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3"/>
+        <v>0.30742049469964666</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.47345132743362839</v>
+      </c>
       <c r="J54" s="3">
-        <v>0.41108711303095752</v>
+        <v>0.95032397408207347</v>
       </c>
       <c r="K54" s="3">
-        <v>0.46166950596252126</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0.44168260038240914</v>
-      </c>
-      <c r="M54" s="3"/>
+        <v>0.1465076660988075</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3">
+        <v>0.22253922967189732</v>
+      </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>0.20620592383638925</v>
       </c>
       <c r="O54" s="3">
-        <v>8.5348506401137975E-2</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+        <v>7.3257467994310099E-2</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0.50704225352112686</v>
+      </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3">
-        <v>0.30327780763030632</v>
+        <v>0.26942504030091352</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3">
-        <v>3.0624263839811549E-2</v>
-      </c>
-      <c r="I55" s="3"/>
+        <v>0.51472320376914027</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.44247787610619471</v>
+      </c>
       <c r="J55" s="3">
-        <v>8.2073434125269989E-2</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>0.35493160547156222</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.43781942078364572</v>
+      </c>
       <c r="L55" s="3">
-        <v>0.79827915869980881</v>
+        <v>5.6405353728489475E-2</v>
       </c>
       <c r="M55" s="3">
-        <v>0.41412268188302431</v>
+        <v>0.48601997146932957</v>
       </c>
       <c r="N55" s="3">
-        <v>0.73991537376586736</v>
+        <v>0.17207334273624822</v>
       </c>
       <c r="O55" s="3">
-        <v>4.9786628733997154E-3</v>
+        <v>0.78449502133712656</v>
       </c>
       <c r="P55" s="3">
-        <v>0.80555555555555547</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>5</v>
@@ -3336,145 +3364,143 @@
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E56" s="3">
-        <v>0.28662009672219241</v>
+        <v>0.54691026329930148</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
-        <v>1.5961138098542681E-2</v>
+        <v>1.31852879944483E-2</v>
       </c>
       <c r="H56" s="3">
-        <v>0.38633686690223801</v>
+        <v>0.22025912838633693</v>
       </c>
       <c r="I56" s="3">
-        <v>0.14159292035398235</v>
+        <v>0.32300884955752213</v>
       </c>
       <c r="J56" s="3">
-        <v>0.22102231821454282</v>
+        <v>0.43556515478761698</v>
       </c>
       <c r="K56" s="3">
-        <v>0.11754684838160136</v>
+        <v>0.18739352640545145</v>
       </c>
       <c r="L56" s="3">
-        <v>0.28871892925430209</v>
+        <v>3.2504780114722756E-2</v>
       </c>
       <c r="M56" s="3">
-        <v>0.55977175463623408</v>
+        <v>0.32681883024251074</v>
       </c>
       <c r="N56" s="3">
-        <v>0.21607898448519039</v>
+        <v>0.11819464033850494</v>
       </c>
       <c r="O56" s="3">
-        <v>0.6344238975817923</v>
+        <v>0.30227596017069702</v>
       </c>
       <c r="P56" s="3">
-        <v>0.18518518518518515</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E57" s="3">
-        <v>0.68704997313272442</v>
+        <v>0.15325094035464804</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="3">
-        <v>0.50381679389312972</v>
-      </c>
-      <c r="H57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <v>0.35100117785630158</v>
+      </c>
       <c r="I57" s="3">
-        <v>0.66814159292035402</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0.7703383729301656</v>
+        <v>0.10223182145428367</v>
       </c>
       <c r="K57" s="3">
-        <v>0.37819420783645658</v>
+        <v>2.7257240204429302E-2</v>
       </c>
       <c r="L57" s="3">
-        <v>0.22944550669216057</v>
+        <v>9.7514340344168227E-2</v>
       </c>
       <c r="M57" s="3">
-        <v>1.2838801711840232E-3</v>
+        <v>0.62610556348074187</v>
       </c>
       <c r="N57" s="3">
-        <v>3.89280677009873E-2</v>
+        <v>0.40056417489421714</v>
       </c>
       <c r="O57" s="3">
-        <v>0.29231863442389755</v>
+        <v>0.44594594594594589</v>
       </c>
       <c r="P57" s="3">
-        <v>6.4814814814814811E-2</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3">
-        <v>0.63138097796883397</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.36235955056179775</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.84455239417071482</v>
-      </c>
+        <v>0.4438473938742612</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3">
-        <v>0.94464075382803314</v>
+        <v>0.34275618374558314</v>
       </c>
       <c r="I58" s="3">
-        <v>8.4070796460177025E-2</v>
+        <v>3.0973451327433659E-2</v>
       </c>
       <c r="J58" s="3">
-        <v>0.63210943124550045</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5.621805792163543E-2</v>
-      </c>
+        <v>0.26709863210943124</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3">
-        <v>3.4416826003824084E-2</v>
+        <v>5.6405353728489475E-2</v>
       </c>
       <c r="M58" s="3">
-        <v>2.1540656205420828E-2</v>
+        <v>0.43509272467902999</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>0.17545839210155145</v>
       </c>
       <c r="O58" s="3">
-        <v>6.4011379800853483E-3</v>
-      </c>
-      <c r="P58" s="3"/>
+        <v>0.44594594594594589</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0.17592592592592593</v>
+      </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>5</v>
@@ -3483,94 +3509,94 @@
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E59" s="3">
-        <v>9.5647501343363792E-3</v>
+        <v>0.22450295540032242</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3">
-        <v>0.35100117785630158</v>
-      </c>
-      <c r="I59" s="3"/>
+        <v>0.39693757361601895</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.31858407079646017</v>
+      </c>
       <c r="J59" s="3">
-        <v>4.7516198704103681E-2</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>0.34557235421166305</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.17376490630323679</v>
+      </c>
       <c r="L59" s="3">
-        <v>0.28967495219885275</v>
+        <v>0.12045889101338431</v>
       </c>
       <c r="M59" s="3">
-        <v>0.46134094151212562</v>
+        <v>0.57246790299572048</v>
       </c>
       <c r="N59" s="3">
-        <v>0.86375176304654444</v>
+        <v>0.25218617771509166</v>
       </c>
       <c r="O59" s="3">
-        <v>0.53271692745376953</v>
+        <v>0.57112375533428161</v>
       </c>
       <c r="P59" s="3">
-        <v>0.45370370370370372</v>
-      </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3">
-        <v>0.94098781270044896</v>
-      </c>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0.11267605633802816</v>
+      </c>
+      <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3">
-        <v>0.62321332616872649</v>
+        <v>0.18946802794196671</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="3">
-        <v>0.85079805690492716</v>
-      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="3">
-        <v>0.66666666666666685</v>
+        <v>0.57950530035335701</v>
       </c>
       <c r="I60" s="3">
-        <v>0.28318584070796471</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="J60" s="3">
-        <v>0.36357091432685384</v>
+        <v>0.14830813534917203</v>
       </c>
       <c r="K60" s="3">
-        <v>0.33901192504258948</v>
+        <v>4.2589437819420775E-2</v>
       </c>
       <c r="L60" s="3">
-        <v>0.4760994263862332</v>
+        <v>6.1185468451242828E-2</v>
       </c>
       <c r="M60" s="3">
-        <v>1.8544935805991439E-2</v>
+        <v>0.7308131241084167</v>
       </c>
       <c r="N60" s="3">
-        <v>8.0677009873060646E-2</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>4.4807965860597432E-2</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5.5555555555555559E-2</v>
-      </c>
+        <v>0.61735419630156463</v>
+      </c>
+      <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>5</v>
@@ -3582,45 +3608,45 @@
         <v>7</v>
       </c>
       <c r="E61" s="3">
-        <v>0.34991939817302531</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3">
-        <v>6.5232477446217907E-2</v>
-      </c>
+        <v>0.23664696399785062</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5.8988764044943812E-2</v>
+      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="3">
-        <v>0.25088339222614842</v>
+        <v>0.24263839811542998</v>
       </c>
       <c r="I61" s="3">
-        <v>0.31415929203539822</v>
+        <v>3.5398230088495609E-2</v>
       </c>
       <c r="J61" s="3">
-        <v>0.38012958963282939</v>
+        <v>5.1115910727141826E-2</v>
       </c>
       <c r="K61" s="3">
-        <v>0.2879045996592845</v>
+        <v>1.0221465076660987E-2</v>
       </c>
       <c r="L61" s="3">
-        <v>1.4340344168260039E-2</v>
+        <v>5.6405353728489475E-2</v>
       </c>
       <c r="M61" s="3">
-        <v>0.67503566333808851</v>
+        <v>0.67489300998573476</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>0.24372355430183357</v>
       </c>
       <c r="O61" s="3">
-        <v>0.24893314366998576</v>
+        <v>0.40113798008534846</v>
       </c>
       <c r="P61" s="3">
-        <v>0.13888888888888887</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>5</v>
@@ -3628,101 +3654,95 @@
       <c r="C62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="3">
-        <v>0.53315421816227837</v>
+        <v>0.64416980118216016</v>
       </c>
       <c r="F62" s="3">
+        <v>0.31460674157303375</v>
+      </c>
+      <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>1.4573213046495491E-2</v>
-      </c>
       <c r="H62" s="3">
-        <v>0.30742049469964666</v>
+        <v>6.7137809187279171E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>0.47345132743362839</v>
+        <v>0.29646017699115046</v>
       </c>
       <c r="J62" s="3">
-        <v>0.95032397408207347</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0.1465076660988075</v>
-      </c>
-      <c r="L62" s="3"/>
+        <v>0.40388768898488114</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <v>4.1108986615678779E-2</v>
+      </c>
       <c r="M62" s="3">
-        <v>0.22253922967189732</v>
+        <v>0.19329529243937235</v>
       </c>
       <c r="N62" s="3">
-        <v>0.20620592383638925</v>
-      </c>
-      <c r="O62" s="3">
-        <v>7.3257467994310099E-2</v>
-      </c>
+        <v>0.25359661495063468</v>
+      </c>
+      <c r="O62" s="3"/>
       <c r="P62" s="3">
-        <v>0.19444444444444442</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0.50704225352112686</v>
-      </c>
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="3">
-        <v>0.64030091348737239</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1.6853932584269662E-2</v>
-      </c>
+        <v>0.19946265448683506</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3">
-        <v>1.31852879944483E-2</v>
+        <v>1.4573213046495491E-2</v>
       </c>
       <c r="H63" s="3">
-        <v>0.3262661955241461</v>
+        <v>0.35100117785630158</v>
       </c>
       <c r="I63" s="3">
-        <v>0.45132743362831862</v>
+        <v>0.35840707964601776</v>
       </c>
       <c r="J63" s="3">
-        <v>1</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0.10902896081771721</v>
-      </c>
+        <v>0.26637868970482359</v>
+      </c>
+      <c r="K63" s="3"/>
       <c r="L63" s="3">
-        <v>6.0229445506692153E-2</v>
+        <v>6.8833652007648169E-2</v>
       </c>
       <c r="M63" s="3">
-        <v>0.17403708987161201</v>
+        <v>0.78958630527817408</v>
       </c>
       <c r="N63" s="3">
-        <v>5.7263751763046537E-2</v>
+        <v>0.19858956276445697</v>
       </c>
       <c r="O63" s="3">
-        <v>2.4182076813655758E-2</v>
+        <v>0.29658605974395447</v>
       </c>
       <c r="P63" s="3">
-        <v>0.19444444444444442</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>5</v>
@@ -3734,89 +3754,83 @@
         <v>7</v>
       </c>
       <c r="E64" s="3">
-        <v>0.19946265448683506</v>
+        <v>0.14390112842557765</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="3">
-        <v>1.4573213046495491E-2</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0.35100117785630158</v>
-      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3">
-        <v>0.35840707964601776</v>
+        <v>0.28318584070796471</v>
       </c>
       <c r="J64" s="3">
-        <v>0.26637868970482359</v>
+        <v>0.23038156947444202</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3">
-        <v>6.8833652007648169E-2</v>
+        <v>0.1175908221797323</v>
       </c>
       <c r="M64" s="3">
-        <v>0.78958630527817408</v>
+        <v>0.83238231098430826</v>
       </c>
       <c r="N64" s="3">
-        <v>0.19858956276445697</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3">
-        <v>0.29658605974395447</v>
+        <v>1</v>
       </c>
       <c r="P64" s="3">
-        <v>0.77777777777777768</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E65" s="3">
-        <v>0.17646426652337455</v>
-      </c>
-      <c r="F65" s="3"/>
+        <v>0.48672756582482535</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.2682584269662921</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3">
-        <v>0.14958775029446411</v>
+        <v>0.10836277974087162</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
-        <v>6.4074874010079205E-2</v>
+        <v>7.1994240460763137E-2</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3">
-        <v>0.98470363288718932</v>
+        <v>7.1701720841300179E-2</v>
       </c>
       <c r="M65" s="3">
-        <v>0.40756062767475038</v>
+        <v>0.46804564907275326</v>
       </c>
       <c r="N65" s="3">
-        <v>0.88095909732016919</v>
+        <v>0.2242595204513399</v>
       </c>
       <c r="O65" s="3">
-        <v>0.2503556187766714</v>
-      </c>
-      <c r="P65" s="3">
-        <v>0.30555555555555552</v>
-      </c>
+        <v>1.9914651493598858E-2</v>
+      </c>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3">
-        <v>0.14239897370109045</v>
-      </c>
+      <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>5</v>
@@ -3828,91 +3842,77 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>0.17270284793121979</v>
+        <v>0.27329392799570124</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3">
-        <v>0.14487632508833925</v>
+        <v>0.11778563015312134</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <v>1.7998560115190781E-2</v>
+        <v>0.1007919366450684</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3">
-        <v>1</v>
+        <v>6.5009560229445512E-2</v>
       </c>
       <c r="M66" s="3">
-        <v>0.41968616262482172</v>
+        <v>0.58687589158345221</v>
       </c>
       <c r="N66" s="3">
-        <v>0.90973201692524674</v>
+        <v>0.4358251057827926</v>
       </c>
       <c r="O66" s="3">
-        <v>0.21763869132290184</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0.37962962962962965</v>
-      </c>
+        <v>0.17567567567567569</v>
+      </c>
+      <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3">
-        <v>0.10262989095574086</v>
-      </c>
+      <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>0.6027941966684579</v>
+        <v>0.23320795271359487</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="3">
-        <v>0.52532963219986117</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="3">
-        <v>0.61248527679623099</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.5575221238938054</v>
-      </c>
+        <v>0.12956419316843348</v>
+      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3">
-        <v>0.6911447084233262</v>
-      </c>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
+        <v>0.12455003599712024</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3">
-        <v>0.19789674952198855</v>
+        <v>0.10038240917782024</v>
       </c>
       <c r="M67" s="3">
-        <v>3.4236804564907277E-3</v>
+        <v>0.64179743223965768</v>
       </c>
       <c r="N67" s="3">
-        <v>2.7362482369534553E-2</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0.31507823613086766</v>
-      </c>
-      <c r="P67" s="3">
-        <v>7.4074074074074056E-2</v>
-      </c>
+        <v>0.48801128349788431</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>5</v>
@@ -3920,43 +3920,43 @@
       <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>0.28662009672219241</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <v>2.0124913254684251E-2</v>
+        <v>1.5961138098542681E-2</v>
       </c>
       <c r="H68" s="3">
-        <v>0.32979976442873976</v>
-      </c>
-      <c r="I68" s="3"/>
+        <v>0.38633686690223801</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.14159292035398235</v>
+      </c>
       <c r="J68" s="3">
-        <v>5.2555795536357086E-2</v>
-      </c>
-      <c r="K68" s="3"/>
+        <v>0.22102231821454282</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.11754684838160136</v>
+      </c>
       <c r="L68" s="3">
-        <v>0.33365200764818354</v>
+        <v>0.28871892925430209</v>
       </c>
       <c r="M68" s="3">
-        <v>0.42524964336661919</v>
+        <v>0.55977175463623408</v>
       </c>
       <c r="N68" s="3">
-        <v>1</v>
+        <v>0.21607898448519039</v>
       </c>
       <c r="O68" s="3">
-        <v>0.42460881934566141</v>
+        <v>0.6344238975817923</v>
       </c>
       <c r="P68" s="3">
-        <v>0.53703703703703698</v>
+        <v>0.18518518518518515</v>
       </c>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3">
-        <v>1</v>
-      </c>
+      <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -3979,6 +3979,9 @@
       <c r="R69" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+    <sortCondition ref="A1:A69"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/成分归一化处理.xlsx
+++ b/excel/成分归一化处理.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD78C5-9561-4F72-AD40-0148FECC69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83F5F3-F3A6-48E8-A6AE-0FF08D02F6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5ADE8E0F-12D6-43D0-87D8-457E6F83B772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -348,9 +351,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -424,13 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -747,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382CB9B7-334C-4809-BE92-D9969C8936CC}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -850,9 +852,7 @@
         <v>0.3594646271510516</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="3">
         <v>7.8236130867709808E-2</v>
       </c>
@@ -900,9 +900,7 @@
       <c r="M3" s="3">
         <v>0.67503566333808851</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3">
         <v>0.24893314366998576</v>
       </c>
@@ -946,9 +944,7 @@
       <c r="M4" s="3">
         <v>1.9971469329529245E-3</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3">
         <v>4.1963015647226175E-2</v>
       </c>
@@ -1042,9 +1038,7 @@
         <v>0.19789674952198855</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3">
         <v>5.1209103840682786E-2</v>
       </c>
@@ -1090,9 +1084,7 @@
         <v>0.30210325047801145</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>6.1877667140825023E-2</v>
       </c>
@@ -1234,9 +1226,7 @@
         <v>0.29923518164435947</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="3">
         <v>3.8406827880512091E-2</v>
       </c>
@@ -1370,9 +1360,7 @@
         <v>0.13766730401529634</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="3">
         <v>1.9914651493598858E-2</v>
       </c>
@@ -1414,9 +1402,7 @@
         <v>6.9789674952198844E-2</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1504,9 +1490,7 @@
         <v>0.14722753346080303</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="3">
         <v>5.6899004267425305E-3</v>
       </c>
@@ -1550,9 +1534,7 @@
         <v>0.44168260038240914</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="3">
         <v>8.5348506401137975E-2</v>
       </c>
@@ -1600,9 +1582,7 @@
       <c r="M18" s="3">
         <v>2.1540656205420828E-2</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="3">
         <v>6.4011379800853483E-3</v>
       </c>
@@ -1690,9 +1670,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="3">
         <v>9.1749644381223322E-2</v>
       </c>
@@ -1876,9 +1854,7 @@
         <v>4.2065009560229447E-2</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
+      <c r="N24" s="3"/>
       <c r="O24" s="3">
         <v>9.9573257467994291E-3</v>
       </c>
@@ -2152,9 +2128,7 @@
         <v>0.13671128107074568</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
+      <c r="N30" s="3"/>
       <c r="O30" s="3">
         <v>2.0625889046941678E-2</v>
       </c>
@@ -3584,9 +3558,7 @@
       <c r="M60" s="3">
         <v>0.7308131241084167</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
+      <c r="N60" s="3"/>
       <c r="O60" s="3">
         <v>0.61735419630156463</v>
       </c>
@@ -3772,9 +3744,7 @@
       <c r="M64" s="3">
         <v>0.83238231098430826</v>
       </c>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
+      <c r="N64" s="3"/>
       <c r="O64" s="3">
         <v>1</v>
       </c>
@@ -3978,7 +3948,28 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="N1:N70" xr:uid="{382CB9B7-334C-4809-BE92-D9969C8936CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A1:A69"/>
   </sortState>
